--- a/artfynd/A 38916-2023 artfynd.xlsx
+++ b/artfynd/A 38916-2023 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2785,6 +2785,235 @@
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131199758</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5197</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Anderstorp, Anderstorp, Nrk</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>467630</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6544255</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Nysund</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre gnagspår och kläckhål på stående död gran</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131199884</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4773</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100299</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cacotemnus thomsoni</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Kraatz, 1881)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Anderstorp, Anderstorp, Nrk</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>467729</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6544345</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Nysund</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Gnagspår och kläckhål i stående död gran</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
